--- a/DiccionarioDeDatos.xlsx
+++ b/DiccionarioDeDatos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Churmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\GitHub\PFWebII\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="USUARIOS" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
